--- a/public/Plantilla4.xlsx
+++ b/public/Plantilla4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\hg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
   <si>
     <t>Carrera</t>
-  </si>
-  <si>
-    <t>Matricula</t>
   </si>
   <si>
     <t>Porcentaje</t>
@@ -39,10 +36,13 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Negocios</t>
+    <t>ENE-ABR</t>
   </si>
   <si>
-    <t>ENE-ABR</t>
+    <t>Sistemas</t>
+  </si>
+  <si>
+    <t>Cantidad Matriculas</t>
   </si>
 </sst>
 </file>
@@ -849,13 +849,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -865,16 +868,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -887,14 +890,28 @@
       <c r="C2">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
